--- a/admin/Cherry_Admin_Finance.xlsx
+++ b/admin/Cherry_Admin_Finance.xlsx
@@ -491,13 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,52 +898,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,28 +911,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1000,9 +943,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,16 +952,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,137 +973,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,645 +1488,645 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="47"/>
+    <col min="1" max="1" width="8.796875" style="27"/>
     <col min="3" max="3" width="15.796875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="65" customWidth="1"/>
-    <col min="14" max="14" width="15" style="67" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="15" style="44" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="11.3984375" customWidth="1"/>
     <col min="17" max="17" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="65" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="62">
         <v>44501</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="89" t="s">
+    <row r="3" spans="1:18" s="65" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="90">
+      <c r="P3" s="69">
         <v>44501</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="9" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:18" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="80" t="s">
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="1:18" s="65" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="26" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="9"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="70">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="64" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="9"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="255" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="70">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="64" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="69" t="s">
+      <c r="N9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="9"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="70">
+      <c r="A10" s="47">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="64" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="9"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="319.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="70">
+      <c r="A11" s="47">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="64" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="9"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="70">
+      <c r="A12" s="47">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="64" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="9"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="70">
+      <c r="A13" s="47">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="64" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="70">
+      <c r="A14" s="47">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="64" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="9"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2168,423 +2171,423 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="47"/>
+    <col min="1" max="1" width="8.796875" style="27"/>
     <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="12" max="12" width="15.8984375" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="65" customWidth="1"/>
-    <col min="14" max="14" width="15" style="67" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="15" style="44" customWidth="1"/>
     <col min="15" max="15" width="17.09765625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="65" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="62">
         <v>44501</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14" t="s">
+    <row r="3" spans="1:18" s="65" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="84">
         <v>44501</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="9" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:18" s="65" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="23" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="37" t="s">
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="1:18" s="65" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="88"/>
+      <c r="B6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="23" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="26" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="9"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="235.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="64" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="9"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="237" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="64" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="69" t="s">
+      <c r="N9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="9"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="280.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="45">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="64" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="9"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="45">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="64" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="9"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="45">
+      <c r="A12" s="25">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="64" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="9"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="45">
+      <c r="A13" s="25">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="64" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="45">
+      <c r="A14" s="25">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="64" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="9"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2630,424 +2633,426 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="46"/>
-    <col min="2" max="2" width="8.796875" style="9"/>
-    <col min="3" max="3" width="15.796875" style="9" customWidth="1"/>
-    <col min="4" max="11" width="8.796875" style="9"/>
-    <col min="12" max="12" width="21.796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="15" style="9" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="9" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="9"/>
-    <col min="17" max="17" width="12" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="1" width="8.796875" style="26"/>
+    <col min="2" max="2" width="8.796875" style="2"/>
+    <col min="3" max="3" width="15.796875" style="2" customWidth="1"/>
+    <col min="4" max="11" width="8.796875" style="2"/>
+    <col min="12" max="12" width="21.796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" style="2"/>
+    <col min="17" max="17" width="12" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="62">
         <v>44501</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="75"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14" t="s">
+    <row r="3" spans="1:18" s="64" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="90"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="84">
         <v>44501</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="81"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="9" t="s">
+    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="51"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:18" s="64" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="23" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="51"/>
-      <c r="B6" s="37" t="s">
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="92"/>
+      <c r="B6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="23" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="76" t="s">
         <v>14</v>
       </c>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="26" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="147" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="70">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="64" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:18" ht="143.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="70">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="64" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="69" t="s">
+      <c r="N9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:18" ht="202.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="70">
+      <c r="A10" s="47">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="64" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="202.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="70">
+      <c r="A11" s="47">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="64" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="70">
+      <c r="A12" s="47">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="64" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="70">
+      <c r="A13" s="47">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="64" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="70">
+      <c r="A14" s="47">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="64" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="N15" s="66"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="N16" s="66"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N17" s="66"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N18" s="66"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N19" s="66"/>
+      <c r="N19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3093,462 +3098,464 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="71"/>
-    <col min="2" max="2" width="8.796875" style="9"/>
-    <col min="3" max="3" width="15.796875" style="9" customWidth="1"/>
-    <col min="4" max="11" width="8.796875" style="9"/>
-    <col min="12" max="12" width="20.796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="15" style="9" customWidth="1"/>
-    <col min="15" max="15" width="15.3984375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="13.69921875" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="1" width="8.796875" style="48"/>
+    <col min="2" max="2" width="8.796875" style="2"/>
+    <col min="3" max="3" width="15.796875" style="2" customWidth="1"/>
+    <col min="4" max="11" width="8.796875" style="2"/>
+    <col min="12" max="12" width="20.796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.3984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.69921875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="74"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+      <c r="A1" s="50"/>
+    </row>
+    <row r="2" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="62">
         <v>44501</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="75"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14" t="s">
+    <row r="3" spans="1:18" s="64" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="90"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="84">
         <v>44501</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="81"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="9" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="23" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="51"/>
-      <c r="B6" s="37" t="s">
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="92"/>
+      <c r="B6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="23" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="76" t="s">
         <v>14</v>
       </c>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="26" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="73">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="26" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:18" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="70">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="26" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="69" t="s">
+      <c r="N9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:18" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="70">
+      <c r="A10" s="47">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="64" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="70">
+      <c r="A11" s="47">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="57" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="64" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="298.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="70">
+      <c r="A12" s="47">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="64" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="324" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="70">
+      <c r="A13" s="47">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="64" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="70">
+      <c r="A14" s="47">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="64" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="70">
+      <c r="A15" s="47">
         <v>9</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="64" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="73">
+      <c r="A16" s="49">
         <v>10</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="64" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="69" t="s">
+      <c r="N16" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="N17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/admin/Cherry_Admin_Finance.xlsx
+++ b/admin/Cherry_Admin_Finance.xlsx
@@ -109,21 +109,6 @@
     <t>Cherry</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily Order Chart will show at top-left of the page with apex chart following sql query:
-    $currentYear = Carbon::now()-&gt;year;
-    $currentMonth = Carbon::now()-&gt;month;
-     SELECT 
-          order_date as date,
-          day(order_date) as day
-          count(id) as totalorder
-      FROM t_ad_order
-      WHERE(month(order_date), $currentMonth)
-      WHERE(year(order_date), $currentYear)
-      ORDERBY(order_date, 'ASC')
-      GROUPBY(date)
- </t>
-  </si>
-  <si>
     <t>Monthly btn</t>
   </si>
   <si>
@@ -170,26 +155,6 @@
   </si>
   <si>
     <t>Yearly Coin Sale Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yearly CoinChart will show at top-right of the page with apex chart following sql query:
-       SELECT 
-           year(created_at) as year,
-           sum(amount) as totalAmount
-        FROM  t_ad_coincharge_finance
-        ORDERBY(year(created_at), 'ASC')
-        GROUPBY(year)
-     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yearly Order Chart will show at top-left of the page with apex chart following sql query:
-      SELECT 
-          year(order_date) as year,
-          count(id) as totalorder
-      FROM t_ad_order
-      ORDERBY(year(order_date), 'ASC')
-      GROUPBY(year)
- </t>
   </si>
   <si>
     <t>There are two input boxes and one search box btn. And there is no data in charts and tables.</t>
@@ -207,20 +172,6 @@
   </si>
   <si>
     <t>Range Sale Coin Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicking search btn,Range Sale Order Chart will show at top-left of the page with apex chart following sql query:
-       $fromDate = $request['fromDate'];
-        $toDate = $request['toDate'];
-        SELECT 
-           order_date as date,
-           count(id) as totalorder
-        FROM  t_ad_order
-         WHERE(order_date, '&gt;=', $fromDate)
-         WHERE(order_date, '&lt;=', $toDate)
-          ORDERBY(order_date, 'ASC')
-          GROUPBY(date)
-     </t>
   </si>
   <si>
     <t>Range Sale Order Table</t>
@@ -251,201 +202,742 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">After clicking search btn,Range Sale Order Table will show To Date and Total Order  at bottom-left of the page with table following sql query:
-       $fromDate = $request['fromDate'];
-        $toDate = $request['toDate'];
+    <t>Food Lab</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>2022/03/05</t>
+  </si>
+  <si>
+    <t>2022/03/04</t>
+  </si>
+  <si>
+    <t>When admin access this address  http://www.website.com/dailyChart,
+ Daily Sale  page will show.</t>
+  </si>
+  <si>
+    <t>When admin click monthly btn,page will transfer to http://www.website.com/monthlyChart</t>
+  </si>
+  <si>
+    <t>When admin click yearly btn,page will transfer to http://www.website.com/yearlyChart</t>
+  </si>
+  <si>
+    <t>When admin click range btn,page will transfer to http://www.website.com/rangeChart</t>
+  </si>
+  <si>
+    <t>When admin access this address  http://www.website.com/monthlyChart,
+ Monthly Sale  page will show.</t>
+  </si>
+  <si>
+    <t>When admin click daily btn,page will transfer to http://www.website.com/dailyChart</t>
+  </si>
+  <si>
+    <t>When admin access this address  http://www.website.com/yearlyChart,
+ Yearly Sale  page will show.</t>
+  </si>
+  <si>
+    <t>When admin click monthly btn,page will transfer to http://www.website.com/dailyChart</t>
+  </si>
+  <si>
+    <t>When admin access this address http://www.website.com/rangeChart,
+ Yearly Sale  page will show.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When admin click range btn,page will transfer to  http://www.website.com/yearlyChart </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily Coin Sale Table will show charge date and total amount at bottom-right   of the page with table following sql query:  
+       SELECT 
+           date(created_at) as date
+           day(created_at) as day,
+           sum(amount) as totalAmount
+        FROM  t_ad_coincharge_finance
+         WHERE(month(created_at), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_currentMonth_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+         WHERE(year(created_at),</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+         ORDERBY(created_at, 'ASC')
+         GROUPBY(date)
+  There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Monthly Order Sale Table will show month and total order at bottom-left of the page with table following sql query:
+         SELECT 
+            year(order_date) as year,
+            monthname(order_date) as month,
+            count(id) as totalorder
+         FROM t_ad_order
+         WHERE(year(order_date)'), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+         GROUPBY(year)
+         GROUPBY(month)
+There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monthly Coin Sale Table will show charge month and total amount at bottom-right   of the page with table following sql query:  
+         SELECT 
+           year(created_at) as year
+           monthname(created_at)as month
+           sum(amount) as totalAmount
+        FROM  t_ad_coincharge_finance
+         WHERE(year(created_at)'),</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+         GROUPBY(year)
+         GROUPBY(month)
+There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monthly CoinChart will show with careys pink and white color at top-right of the page.Coin amounts and months will be shown  as labels and when customer hover over the number, coin box will show in a coin chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Monthly coin chart will show with apex chart following sql query:
+         SELECT 
+           year(created_at) as year
+           monthname(created_at)as month
+           sum(amount) as totalAmount
+        FROM  t_ad_coincharge_finance
+         WHERE(year(created_at)'),</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+         GROUPBY(year)
+         GROUPBY(month)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Monthly Order Chart will show with careys pink and white color at top-left of the page.Order amounts and months will be shown  as labels and when customer hover over the number, order transaction will show box in a order chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Monthly order chart will show with apex chart following sql query:
+         SELECT 
+            year(order_date) as year,
+            monthname(order_date) as month,
+            count(id) as totalorder
+         FROM t_ad_order
+         WHERE(year(order_date)'),  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+         GROUPBY(year)
+         GROUPBY(month)
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily Coin Chart will show with careys pink and white color at top-right of the page.Coin amounts and dates will be shown  as labels and when customer hover over the number, coin box will show in a coin chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Daily coin chart will show with apex chart following sql query:
+        SELECT 
+           day(created_at) as day,
+           sum(amount) as totalAmount
+        FROM  t_ad_coincharge_finance
+        WHERE(month(created_at), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentMonth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+         WHERE(year(created_at), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+         ORDERBY(created_at, 'ASC')
+         GROUPBY(day)
+     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily Order Chart will show with careys pink and white color at top-left of the page.Order amounts and dates will be shown  as labels and when customer hover over the number, order transaction will show box in a order chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Order chart will show with apex chart following sql query:
+     SELECT 
+          order_date as date,
+          day(order_date) as day
+          count(id) as totalorder
+      FROM t_ad_order
+      WHERE(month(order_date), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentMonth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+      WHERE(year(order_date),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentYear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+      ORDERBY(order_date, 'ASC')
+      GROUPBY(date)
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>After clicking search btn,Range Sale Order Table will show To Date and Total Order  at bottom-left of the page with table following sql query:
         SELECT 
            order_date as date,
            count(id) as totalorder
         FROM  t_ad_order
-         WHERE(order_date, '&gt;=', $fromDate)
-         WHERE(order_date, '&lt;=', $toDate)
+         WHERE(order_date, '&gt;=',</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _fromDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+         WHERE(order_date, '&lt;=', </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_toDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
           ORDERBY(order_date, 'ASC')
           GROUPBY(date)
 To show  datas in table, datas send using ajax.
 There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.
   </t>
-  </si>
-  <si>
-    <t>Food Lab</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicking search btn,Range Sale Coin Chart will show at top-right of the page with apex chart following sql query:
-        $fromDate = $request['fromDate'];
-        $toDate = $request['toDate'];
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking search btn,Range Sale Coin Table will show To Date and Total Amount  at bottom-right of the page with table following sql query:
        SELECT 
            date(created_at) as date,
            sum(amount) as totalAmount
         FROM  t_ad_coincharge_finance
-         WHERE(date(created_at, '&gt;=', $fromDate)
-         WHERE(date(created_at, '&lt;=', $toDate)
-         ORDERBY(created_at, 'ASC')
-         GROUPBY(date)
-      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicking search btn,Range Sale Coin Table will show To Date and Total Amount  at bottom-right of the page with table following sql query:
-        $fromDate = $request['fromDate'];
-        $toDate = $request['toDate'];
-       SELECT 
-           date(created_at) as date,
-           sum(amount) as totalAmount
-        FROM  t_ad_coincharge_finance
-         WHERE(date(created_at, '&gt;=', $fromDate)
-         WHERE(date(created_at, '&lt;=', $toDate)
+         WHERE(date(created_at, '&gt;=', </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_fromDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+         WHERE(date(created_at, '&lt;=',</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _toDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
          ORDERBY(created_at, 'ASC')
          GROUPBY(date)
 To show  datas in table, datas send using ajax.
 There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.
   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Order Chart will show at top-left of the page with apex chart following sql query:
-$current = Carbon::now()-&gt;year;
-         SELECT 
-            year(order_date) as year,
-            monthname(order_date) as month,
-            count(id) as totalorder
-         FROM t_ad_order
-         WHERE(year(order_date)'), $current)
-         GROUPBY(year)
-         GROUPBY(month)
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Yearly Order Chart will show with careys pink and white color at top-left of the page.Order amounts and  years will be shown  as labels and when customer hover over the number, order transaction will show box in a order chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Yearly order chart will show with apex chart following sql query:
+      SELECT 
+          year(order_date) as year,
+          count(id) as totalorder
+      FROM t_ad_order
+      ORDERBY(year(order_date), 'ASC')
+      GROUPBY(year)
  </t>
   </si>
   <si>
-    <t>Monthly CoinChart will show at top-right of the page with apex chart following sql query:
-$current = Carbon::now()-&gt;year;
-         SELECT 
-           year(created_at) as year
-           monthname(created_at)as month
+    <t xml:space="preserve">Yearly CoinChart will show with careys pink and white color at top-right of the page.Coin amounts and years will be shown  as labels and when customer hover over the number, coin box will show in a coin chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Yearly coin chart  will show with apex chart following sql query:
+       SELECT 
+           year(created_at) as year,
            sum(amount) as totalAmount
         FROM  t_ad_coincharge_finance
-         WHERE(year(created_at)'), $current)
-         GROUPBY(year)
-         GROUPBY(month)</t>
-  </si>
-  <si>
-    <t>Monthly Order Sale Table will show month and total order at bottom-left of the page with table following sql query:
-  $current = Carbon::now()-&gt;year;
-         SELECT 
-            year(order_date) as year,
-            monthname(order_date) as month,
-            count(id) as totalorder
-         FROM t_ad_order
-         WHERE(year(order_date)'), $current)
-         GROUPBY(year)
-         GROUPBY(month)
-There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
-  </si>
-  <si>
-    <t>Monthly Coin Sale Table will show charge month and total amount at bottom-right   of the page with table following sql query:  
-$current = Carbon::now()-&gt;year;
-         SELECT 
-           year(created_at) as year
-           monthname(created_at)as month
+        ORDERBY(year(created_at), 'ASC')
+        GROUPBY(year)
+     </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking search btn,Range Sale Order Chart will show with careys pink and white color at top-left of the page.Order amounts and  dates will be shown  as labels and when customer hover over the number, order transaction will show box in a order chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Range sale order chart will show with apex chart following sql query:
+        SELECT 
+           order_date as date,
+           count(id) as totalorder
+        FROM  t_ad_order
+         WHERE(order_date, '&gt;=', </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _fromDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+         WHERE(order_date, '&lt;=', </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_toDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+          ORDERBY(order_date, 'ASC')
+          GROUPBY(date)
+     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>After clicking search btn,Range Sale Coin Chart will show with careys pink and white color at top-right of the page.Coin amounts and dates will be shown  as labels and when customer hover over the number, coin box will show in a coin chart. When customer click hambuger menu icon and can download chart with SVG,PNG and CSV.
+Range sale coin chart will show  with apex chart following sql query:
+       SELECT 
+           date(created_at) as date,
            sum(amount) as totalAmount
         FROM  t_ad_coincharge_finance
-         WHERE(year(created_at)'), $current)
-         GROUPBY(year)
-         GROUPBY(month)
-There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily CoinChart will show at top-right of the page with apex chart following sql query:
- $currentYear = Carbon::now()-&gt;year;
- $currentMonth = Carbon::now()-&gt;month;
-        SELECT 
-           day(created_at) as day,
-           sum(amount) as totalAmount
-        FROM  t_ad_coincharge_finance
-        WHERE(month(created_at), $currentMonth)
-         WHERE(year(created_at), $currentYear)
+         WHERE(date(created_at, '&gt;=',</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _fromDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+         WHERE(date(created_at, '&lt;=', </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_toDate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
          ORDERBY(created_at, 'ASC')
-         GROUPBY(day)
-     </t>
-  </si>
-  <si>
-    <t>Daily Order Sale Table will show date and total order at bottom-left of the page with table following sql query:
- $currentYear = Carbon::now()-&gt;year;
- $currentMonth = Carbon::now()-&gt;month;
+         GROUPBY(date)
+      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily Order Sale Table will show date and total order at bottom-left of the page with table following sql query:
     SELECT 
           order_date as date,
           day(order_date) as day
           count(id) as totalorder
       FROM t_ad_order
-      WHERE(month(order_date), $currentMonth)
-      WHERE(year(order_date), $currentYear)
+      WHERE(month(order_date), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _currentMonth_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+      WHERE(year(order_date), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _currentYear_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
       ORDERBY(order_date, 'ASC')
       GROUPBY(date)
  There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
-  </si>
-  <si>
-    <t>Daily Coin Sale Table will show charge date and total amount at bottom-right   of the page with table following sql query:  
- $currentYear = Carbon::now()-&gt;year;
- $currentMonth = Carbon::now()-&gt;month;
-       SELECT 
-           date(created_at) as date
-           day(created_at) as day,
-           sum(amount) as totalAmount
-        FROM  t_ad_coincharge_finance
-         WHERE(month(created_at), $currentMonth)
-         WHERE(year(created_at), $currentYear)
-         ORDERBY(created_at, 'ASC')
-         GROUPBY(date)
-  There are 10 datas showing per page in table using pagniation to divide datas into discrete pages.</t>
-  </si>
-  <si>
-    <t>2022/03/05</t>
-  </si>
-  <si>
-    <t>2022/03/04</t>
-  </si>
-  <si>
-    <t>When admin access this address  http://www.website.com/dailyChart,
- Daily Sale  page will show.</t>
-  </si>
-  <si>
-    <t>When admin click monthly btn,page will transfer to http://www.website.com/monthlyChart</t>
-  </si>
-  <si>
-    <t>When admin click yearly btn,page will transfer to http://www.website.com/yearlyChart</t>
-  </si>
-  <si>
-    <t>When admin click range btn,page will transfer to http://www.website.com/rangeChart</t>
-  </si>
-  <si>
-    <t>When admin access this address  http://www.website.com/monthlyChart,
- Monthly Sale  page will show.</t>
-  </si>
-  <si>
-    <t>When admin click daily btn,page will transfer to http://www.website.com/dailyChart</t>
-  </si>
-  <si>
-    <t>When admin access this address  http://www.website.com/yearlyChart,
- Yearly Sale  page will show.</t>
-  </si>
-  <si>
-    <t>When admin click monthly btn,page will transfer to http://www.website.com/dailyChart</t>
-  </si>
-  <si>
-    <t>When admin access this address http://www.website.com/rangeChart,
- Yearly Sale  page will show.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When admin click range btn,page will transfer to  http://www.website.com/yearlyChart </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,6 +969,21 @@
     </font>
     <font>
       <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -874,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,9 +1405,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,72 +1417,149 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -986,7 +1567,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,130 +1615,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1452,8 +1950,8 @@
     <col min="1" max="1" width="8.796875" style="8"/>
     <col min="3" max="3" width="15.796875" customWidth="1"/>
     <col min="12" max="12" width="24.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15" style="14" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15" style="13" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="11.3984375" customWidth="1"/>
     <col min="17" max="17" width="13.3984375" customWidth="1"/>
@@ -1461,57 +1959,57 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="13"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" s="59" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="40">
         <v>44501</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="59" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="82"/>
+    <row r="3" spans="1:18" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
@@ -1524,255 +2022,255 @@
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="N3" s="61"/>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="63">
+      <c r="P3" s="42">
         <v>44501</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="21" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="1:18" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="69" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" s="59" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="69" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="3" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>65</v>
+      <c r="N7" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+    <row r="8" spans="1:18" ht="285.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="11" t="s">
+      <c r="B8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>65</v>
+      <c r="N8" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="229.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+    <row r="9" spans="1:18" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="11" t="s">
+      <c r="B9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>65</v>
+      <c r="N9" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+    <row r="10" spans="1:18" ht="262.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="11" t="s">
+      <c r="B10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>65</v>
+      <c r="N10" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="319.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+    <row r="11" spans="1:18" ht="271.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="11" t="s">
+      <c r="B11" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>65</v>
+      <c r="N11" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1780,29 +2278,29 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="11" t="s">
+      <c r="B12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>65</v>
+      <c r="N12" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1810,29 +2308,29 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="11" t="s">
+      <c r="B13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>65</v>
+      <c r="N13" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1840,29 +2338,29 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="11" t="s">
+      <c r="B14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>65</v>
+      <c r="N14" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -2091,25 +2589,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="B5:C5"/>
@@ -2118,6 +2597,25 @@
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -2128,15 +2626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="8"/>
     <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="12" max="12" width="19.3984375" customWidth="1"/>
-    <col min="13" max="13" width="19.3984375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19.3984375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15" style="13" customWidth="1"/>
     <col min="15" max="15" width="17.09765625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
@@ -2144,57 +2642,57 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="13"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" s="59" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="40">
         <v>44501</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="59" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="77"/>
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:18" s="20" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
@@ -2207,193 +2705,193 @@
       <c r="L3" s="72"/>
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="74">
+      <c r="P3" s="62">
         <v>44501</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="63"/>
+      <c r="R3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="21" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="59" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:18" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="69" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" s="59" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76" t="s">
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="69" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="3" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>65</v>
+      <c r="N7" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="235.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+    <row r="8" spans="1:18" ht="291" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="11" t="s">
+      <c r="B8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>65</v>
+      <c r="N8" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="237" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+    <row r="9" spans="1:18" ht="263.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="11" t="s">
+      <c r="B9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>65</v>
+      <c r="N9" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -2401,29 +2899,29 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="280.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="11" t="s">
+      <c r="B10" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>65</v>
+      <c r="N10" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -2431,29 +2929,29 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="11" t="s">
+      <c r="B11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>65</v>
+      <c r="N11" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -2461,29 +2959,29 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="11" t="s">
+      <c r="B12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>65</v>
+      <c r="N12" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -2491,29 +2989,29 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="11" t="s">
+      <c r="B13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>65</v>
+      <c r="N13" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -2521,29 +3019,29 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="11" t="s">
+      <c r="B14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>65</v>
+      <c r="N14" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -2552,25 +3050,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="A5:A6"/>
@@ -2580,6 +3059,25 @@
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -2608,51 +3106,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="40">
         <v>44501</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="58" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="77"/>
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:18" s="19" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
@@ -2665,377 +3163,358 @@
       <c r="L3" s="72"/>
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="74">
+      <c r="P3" s="62">
         <v>44501</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="79"/>
+      <c r="R3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="21" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="58" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:18" s="19" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="69" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76" t="s">
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="69" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="3" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>65</v>
+      <c r="N7" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="147" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+    <row r="8" spans="1:18" ht="229.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="11" t="s">
+      <c r="B8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>65</v>
+      <c r="N8" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="143.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+    <row r="9" spans="1:18" ht="230.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="11" t="s">
+      <c r="B9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>65</v>
+      <c r="N9" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="202.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="11" t="s">
+      <c r="B10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>65</v>
+      <c r="N10" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:18" ht="202.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="11" t="s">
+      <c r="B11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>65</v>
+      <c r="N11" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="11" t="s">
+      <c r="B12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>65</v>
+      <c r="N12" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="11" t="s">
+      <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>65</v>
+      <c r="N13" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="11" t="s">
+      <c r="B14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>65</v>
+      <c r="N14" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="N15" s="13"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="N16" s="13"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N17" s="13"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N18" s="13"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N19" s="13"/>
+      <c r="N19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="A5:A6"/>
@@ -3045,6 +3524,25 @@
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -3059,7 +3557,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="18"/>
+    <col min="1" max="1" width="8.796875" style="15"/>
     <col min="2" max="2" width="8.796875" style="2"/>
     <col min="3" max="3" width="15.796875" style="2" customWidth="1"/>
     <col min="4" max="11" width="8.796875" style="2"/>
@@ -3073,43 +3571,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20"/>
-      <c r="R1" s="21"/>
-    </row>
-    <row r="2" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80" t="s">
+      <c r="A1" s="16"/>
+      <c r="R1" s="17"/>
+    </row>
+    <row r="2" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="40">
         <v>44501</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="89"/>
+    <row r="3" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
@@ -3121,394 +3619,394 @@
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="N3" s="61"/>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="63">
+      <c r="P3" s="42">
         <v>44501</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="21" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="69" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76" t="s">
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="69" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="3" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>64</v>
+      <c r="N7" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="3" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>64</v>
+      <c r="N8" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="3" t="s">
+      <c r="B9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>64</v>
+      <c r="N9" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+    <row r="10" spans="1:18" ht="288" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="11" t="s">
+      <c r="B10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>64</v>
+      <c r="N10" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+    <row r="11" spans="1:18" ht="286.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="11" t="s">
+      <c r="B11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>64</v>
+      <c r="N11" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="298.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+    <row r="12" spans="1:18" ht="270" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="11" t="s">
+      <c r="B12" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>64</v>
+      <c r="N12" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="324" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+    <row r="13" spans="1:18" ht="262.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="11" t="s">
+      <c r="B13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>64</v>
+      <c r="N13" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="11" t="s">
+      <c r="B14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>64</v>
+      <c r="N14" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="17">
+      <c r="A15" s="27">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="11" t="s">
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="16" t="s">
-        <v>64</v>
+      <c r="N15" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="19">
+      <c r="A16" s="28">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="11" t="s">
+      <c r="B16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>64</v>
+      <c r="N16" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -3517,20 +4015,22 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="B9:C9"/>
@@ -3539,18 +4039,16 @@
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
